--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value939.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value939.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.357975832123559</v>
+        <v>1.178327441215515</v>
       </c>
       <c r="B1">
-        <v>2.108394105435162</v>
+        <v>1.872254014015198</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.839121885881447</v>
+        <v>0.4559695720672607</v>
       </c>
       <c r="E1">
-        <v>0.7559849498785358</v>
+        <v>0.4881070256233215</v>
       </c>
     </row>
   </sheetData>
